--- a/flow/stock_type_otc.xlsx
+++ b/flow/stock_type_otc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T124"/>
+  <dimension ref="A1:T125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8338,64 +8338,128 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>20230209</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="C124" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="E124" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="F124" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="G124" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I124" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S124" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
           <t>Difference</t>
         </is>
       </c>
-      <c r="B124" t="n">
-        <v>-0.4100000000000037</v>
-      </c>
-      <c r="C124" t="n">
-        <v>3.010000000000002</v>
-      </c>
-      <c r="D124" t="n">
-        <v>-0.8999999999999995</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.9499999999999993</v>
-      </c>
-      <c r="F124" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0</v>
-      </c>
-      <c r="H124" t="n">
-        <v>-1.75</v>
-      </c>
-      <c r="I124" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-0.1800000000000002</v>
-      </c>
-      <c r="L124" t="n">
-        <v>-0.1499999999999999</v>
-      </c>
-      <c r="M124" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="N124" t="n">
-        <v>-0.41</v>
-      </c>
-      <c r="O124" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="P124" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>-0.14</v>
-      </c>
-      <c r="R124" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="S124" t="n">
-        <v>0</v>
-      </c>
-      <c r="T124" t="n">
+      <c r="B125" t="n">
+        <v>3.769999999999996</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.049999999999997</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-3.440000000000001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-0.7300000000000004</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="L125" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.1599999999999999</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0.05999999999999994</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0.1900000000000001</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S125" t="n">
+        <v>-0.009999999999999995</v>
+      </c>
+      <c r="T125" t="n">
         <v>0</v>
       </c>
     </row>

--- a/flow/stock_type_otc.xlsx
+++ b/flow/stock_type_otc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T125"/>
+  <dimension ref="A1:T130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8402,65 +8402,385 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>20230420</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>62.07</v>
+      </c>
+      <c r="C125" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="D125" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="E125" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="F125" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="G125" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I125" t="n">
+        <v>5</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="N125" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O125" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="P125" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S125" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>20230421</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="C126" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="E126" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="F126" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="G126" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="H126" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="I126" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L126" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O126" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="P126" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S126" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>20230424</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>63.46</v>
+      </c>
+      <c r="C127" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="D127" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="F127" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="G127" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="H127" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="I127" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O127" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="P127" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>20230425</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E128" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="G128" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="H128" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="I128" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O128" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="P128" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S128" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>20230426</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>70.52</v>
+      </c>
+      <c r="C129" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="D129" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E129" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="F129" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="G129" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="H129" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="I129" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O129" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="P129" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S129" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
           <t>Difference</t>
         </is>
       </c>
-      <c r="B125" t="n">
-        <v>3.769999999999996</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1.049999999999997</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E125" t="n">
-        <v>-3.440000000000001</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-0.7300000000000004</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.6599999999999999</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-0.83</v>
-      </c>
-      <c r="L125" t="n">
-        <v>-0.8100000000000001</v>
-      </c>
-      <c r="M125" t="n">
-        <v>0.1599999999999999</v>
-      </c>
-      <c r="N125" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="O125" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P125" t="n">
-        <v>0.05999999999999994</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>0.1900000000000001</v>
-      </c>
-      <c r="R125" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S125" t="n">
+      <c r="B130" t="n">
+        <v>6.819999999999993</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.579999999999998</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-4.620000000000001</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.009999999999999787</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-1.149999999999999</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.1299999999999999</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-0.1299999999999999</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-0.3199999999999998</v>
+      </c>
+      <c r="N130" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="O130" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="P130" t="n">
+        <v>-0.6100000000000001</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="R130" t="n">
         <v>-0.009999999999999995</v>
       </c>
-      <c r="T125" t="n">
-        <v>0</v>
+      <c r="S130" t="n">
+        <v>-0.02000000000000002</v>
+      </c>
+      <c r="T130" t="n">
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
